--- a/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T11:39:53+00:00</t>
+    <t>2024-07-04T23:43:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T23:43:08+00:00</t>
+    <t>2024-07-09T07:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T07:15:28+00:00</t>
+    <t>2024-07-09T08:38:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JPN</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T08:38:31+00:00</t>
+    <t>2024-07-09T08:47:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T08:47:48+00:00</t>
+    <t>2024-07-09T09:23:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:23:27+00:00</t>
+    <t>2024-07-10T02:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-10T02:51:33+00:00</t>
+    <t>2024-07-10T03:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-10T03:26:13+00:00</t>
+    <t>2024-07-10T03:56:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-10T03:56:10+00:00</t>
+    <t>2024-07-11T01:02:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T01:02:04+00:00</t>
+    <t>2024-07-12T10:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T10:30:19+00:00</t>
+    <t>2024-07-12T10:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/jurisdiction-mod/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T10:50:19+00:00</t>
+    <t>2024-07-12T10:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
